--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-50.xlsx
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>TRIBULIVA TAB</t>
+  </si>
+  <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
@@ -3493,17 +3496,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3519,17 +3522,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3545,17 +3548,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3571,13 +3574,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3597,13 +3600,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3623,17 +3626,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3649,17 +3652,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3667,7 +3670,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3675,17 +3678,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3701,17 +3704,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3727,13 +3730,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3753,7 +3756,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -3779,13 +3782,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3797,7 +3800,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3805,13 +3808,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3831,17 +3834,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3849,7 +3852,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3857,17 +3860,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3875,7 +3878,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3883,17 +3886,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3909,13 +3912,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3935,13 +3938,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3961,13 +3964,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3979,7 +3982,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3987,13 +3990,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4013,13 +4016,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4039,13 +4042,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4065,13 +4068,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4083,7 +4086,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4091,51 +4094,77 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" ht="24.75" customHeight="1">
+      <c r="A121" s="6">
+        <v>118</v>
+      </c>
+      <c t="s" r="B121" s="7">
+        <v>158</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c t="s" r="H121" s="8">
+        <v>157</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="9">
+        <v>70</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c t="s" r="N121" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="K121" s="10">
-        <v>6395.9099999999999</v>
-      </c>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="11">
-        <v>158</v>
-      </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c t="s" r="F122" s="12">
+    <row r="122" ht="26.25" customHeight="1">
+      <c r="K122" s="10">
+        <v>6443.9099999999999</v>
+      </c>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="11">
         <v>159</v>
       </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="13"/>
-      <c t="s" r="I122" s="14">
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c t="s" r="F123" s="12">
         <v>160</v>
       </c>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="13"/>
+      <c t="s" r="I123" s="14">
+        <v>161</v>
+      </c>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="365">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4494,10 +4523,13 @@
     <mergeCell ref="B120:G120"/>
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
-    <mergeCell ref="K121:N121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="I122:N122"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="K122:N122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="I123:N123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
